--- a/generated_files/gsa_results/simplified_models_parameters.xlsx
+++ b/generated_files/gsa_results/simplified_models_parameters.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andpa\OneDrive - University College London\S4CE\GSA\Geothermal\generated_files\gsa_results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_FB730E05A73EEC181FFBAE6B21846D14F21A61E2" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{40168936-A5F4-42F8-8194-DCBD8CA7832A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="cge_params_5" sheetId="1" r:id="rId1"/>
@@ -22,20 +16,12 @@
     <sheet name="ege_params_15" sheetId="7" r:id="rId7"/>
     <sheet name="ege_params_20" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="24">
   <si>
     <t>parameters</t>
   </si>
@@ -83,6 +69,9 @@
   </si>
   <si>
     <t>fossils</t>
+  </si>
+  <si>
+    <t>land use</t>
   </si>
   <si>
     <t>gross_power_per_well</t>
@@ -109,8 +98,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,14 +162,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -227,7 +208,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -259,27 +240,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -311,24 +274,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,17 +449,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="25.81640625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,96 +505,102 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>0.69560507777546876</v>
+        <v>0.6956050777754688</v>
       </c>
       <c r="E2">
-        <v>0.68789954555475652</v>
+        <v>0.6878995455547565</v>
       </c>
       <c r="F2">
-        <v>0.69389372047736275</v>
+        <v>0.6938937204773628</v>
       </c>
       <c r="G2">
-        <v>0.68138295898207712</v>
+        <v>0.6813829589820771</v>
       </c>
       <c r="H2">
         <v>0.6797781199959303</v>
       </c>
       <c r="I2">
-        <v>0.71099716437137961</v>
+        <v>0.7109971643713796</v>
       </c>
       <c r="J2">
-        <v>0.68744460072002667</v>
+        <v>0.6874446007200267</v>
       </c>
       <c r="K2">
         <v>0.6846635408335453</v>
       </c>
       <c r="L2">
-        <v>0.69893213265450294</v>
+        <v>0.6989321326545029</v>
       </c>
       <c r="M2">
-        <v>0.67509053998806667</v>
+        <v>0.6750905399880667</v>
       </c>
       <c r="N2">
-        <v>0.67597134832485062</v>
+        <v>0.6759713483248506</v>
       </c>
       <c r="O2">
-        <v>0.73637680945107675</v>
+        <v>0.7363768094510768</v>
       </c>
       <c r="P2">
-        <v>0.70127050428854221</v>
+        <v>0.7012705042885422</v>
       </c>
       <c r="Q2">
-        <v>0.69593192257502168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.6959319225750217</v>
+      </c>
+      <c r="R2">
+        <v>0.7189977566645335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.30510637471325852</v>
+        <v>0.3051063747132585</v>
       </c>
       <c r="E3">
-        <v>0.32630091817568491</v>
+        <v>0.3263009181756849</v>
       </c>
       <c r="F3">
-        <v>0.31362666018762769</v>
+        <v>0.3136266601876277</v>
       </c>
       <c r="G3">
-        <v>0.34050071205221583</v>
+        <v>0.3405007120522158</v>
       </c>
       <c r="H3">
-        <v>0.34506135699097668</v>
+        <v>0.3450613569909767</v>
       </c>
       <c r="I3">
-        <v>0.25109706930537939</v>
+        <v>0.2510970693053794</v>
       </c>
       <c r="J3">
-        <v>0.32684612615102898</v>
+        <v>0.326846126151029</v>
       </c>
       <c r="K3">
-        <v>0.35379541996904812</v>
+        <v>0.3537954199690481</v>
       </c>
       <c r="L3">
-        <v>0.29236842351312559</v>
+        <v>0.2923684235131256</v>
       </c>
       <c r="M3">
-        <v>0.35476826865113431</v>
+        <v>0.3547682686511343</v>
       </c>
       <c r="N3">
-        <v>0.35335109744413518</v>
+        <v>0.3533510974441352</v>
       </c>
       <c r="O3">
         <v>0.2178419868273031</v>
@@ -661,53 +609,56 @@
         <v>0.2627636927845457</v>
       </c>
       <c r="Q3">
-        <v>0.30190417342752202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.301904173427522</v>
+      </c>
+      <c r="R3">
+        <v>0.2381195456283279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0.97630647646808</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.13589896774747051</v>
+        <v>0.1358989677474705</v>
       </c>
       <c r="E5">
-        <v>0.12861821666604889</v>
+        <v>0.1286182166660489</v>
       </c>
       <c r="F5">
         <v>0.1343163526104442</v>
       </c>
       <c r="G5">
-        <v>0.12543992399302889</v>
+        <v>0.1254399239930289</v>
       </c>
       <c r="H5">
-        <v>0.12468184008186541</v>
+        <v>0.1246818400818654</v>
       </c>
       <c r="I5">
         <v>0.1430135858686552</v>
       </c>
       <c r="J5">
-        <v>0.12799013550831539</v>
+        <v>0.1279901355083154</v>
       </c>
       <c r="K5">
         <v>0.1278859484289622</v>
       </c>
       <c r="L5">
-        <v>0.13731088298279381</v>
+        <v>0.1373108829827938</v>
       </c>
       <c r="M5">
         <v>0.1222427213382182</v>
@@ -719,60 +670,66 @@
         <v>0.1439862129369518</v>
       </c>
       <c r="P5">
-        <v>0.14196394969625881</v>
+        <v>0.1419639496962588</v>
       </c>
       <c r="Q5">
-        <v>0.13445919056338759</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.1344591905633876</v>
+      </c>
+      <c r="R5">
+        <v>0.1442184086166561</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D6">
-        <v>6.5977473424128158E-2</v>
+        <v>0.06597747342412816</v>
       </c>
       <c r="E6">
-        <v>7.0179831455706262E-2</v>
+        <v>0.07017983145570626</v>
       </c>
       <c r="F6">
-        <v>6.8288651254111501E-2</v>
+        <v>0.0682886512541115</v>
       </c>
       <c r="G6">
-        <v>7.3435457855158606E-2</v>
+        <v>0.07343545785515861</v>
       </c>
       <c r="H6">
-        <v>7.4206144854006506E-2</v>
+        <v>0.07420614485400651</v>
       </c>
       <c r="I6">
-        <v>5.3566264474992249E-2</v>
+        <v>0.05356626447499225</v>
       </c>
       <c r="J6">
-        <v>7.0260233641739944E-2</v>
+        <v>0.07026023364173994</v>
       </c>
       <c r="K6">
-        <v>7.8600132727107336E-2</v>
+        <v>0.07860013272710734</v>
       </c>
       <c r="L6">
-        <v>6.3601894636418826E-2</v>
+        <v>0.06360189463641883</v>
       </c>
       <c r="M6">
-        <v>7.6425993838207265E-2</v>
+        <v>0.07642599383820727</v>
       </c>
       <c r="N6">
-        <v>7.6087829017637762E-2</v>
+        <v>0.07608782901763776</v>
       </c>
       <c r="O6">
-        <v>5.0819223029706373E-2</v>
+        <v>0.05081922302970637</v>
       </c>
       <c r="P6">
-        <v>5.6501250120681953E-2</v>
+        <v>0.05650125012068195</v>
       </c>
       <c r="Q6">
-        <v>6.5234536914320893E-2</v>
+        <v>0.06523453691432089</v>
+      </c>
+      <c r="R6">
+        <v>0.05165906170269749</v>
       </c>
     </row>
   </sheetData>
@@ -781,14 +738,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Q5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -837,96 +794,102 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>0.69560507777546876</v>
+        <v>0.6956050777754688</v>
       </c>
       <c r="E2">
-        <v>0.68789954555475652</v>
+        <v>0.6878995455547565</v>
       </c>
       <c r="F2">
-        <v>0.69389372047736275</v>
+        <v>0.6938937204773628</v>
       </c>
       <c r="G2">
-        <v>0.68138295898207712</v>
+        <v>0.6813829589820771</v>
       </c>
       <c r="H2">
         <v>0.6797781199959303</v>
       </c>
       <c r="I2">
-        <v>0.71099716437137961</v>
+        <v>0.7109971643713796</v>
       </c>
       <c r="J2">
-        <v>0.68744460072002667</v>
+        <v>0.6874446007200267</v>
       </c>
       <c r="K2">
         <v>0.6846635408335453</v>
       </c>
       <c r="L2">
-        <v>0.69893213265450294</v>
+        <v>0.6989321326545029</v>
       </c>
       <c r="M2">
-        <v>0.67509053998806667</v>
+        <v>0.6750905399880667</v>
       </c>
       <c r="N2">
-        <v>0.67597134832485062</v>
+        <v>0.6759713483248506</v>
       </c>
       <c r="O2">
-        <v>0.73637680945107675</v>
+        <v>0.7363768094510768</v>
       </c>
       <c r="P2">
-        <v>0.70127050428854221</v>
+        <v>0.7012705042885422</v>
       </c>
       <c r="Q2">
-        <v>0.69593192257502168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.6959319225750217</v>
+      </c>
+      <c r="R2">
+        <v>0.7189977566645335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.30510637471325852</v>
+        <v>0.3051063747132585</v>
       </c>
       <c r="E3">
-        <v>0.32630091817568491</v>
+        <v>0.3263009181756849</v>
       </c>
       <c r="F3">
-        <v>0.31362666018762769</v>
+        <v>0.3136266601876277</v>
       </c>
       <c r="G3">
-        <v>0.34050071205221583</v>
+        <v>0.3405007120522158</v>
       </c>
       <c r="H3">
-        <v>0.34506135699097668</v>
+        <v>0.3450613569909767</v>
       </c>
       <c r="I3">
-        <v>0.25109706930537939</v>
+        <v>0.2510970693053794</v>
       </c>
       <c r="J3">
-        <v>0.32684612615102898</v>
+        <v>0.326846126151029</v>
       </c>
       <c r="K3">
-        <v>0.35379541996904812</v>
+        <v>0.3537954199690481</v>
       </c>
       <c r="L3">
-        <v>0.29236842351312559</v>
+        <v>0.2923684235131256</v>
       </c>
       <c r="M3">
-        <v>0.35476826865113431</v>
+        <v>0.3547682686511343</v>
       </c>
       <c r="N3">
-        <v>0.35335109744413518</v>
+        <v>0.3533510974441352</v>
       </c>
       <c r="O3">
         <v>0.2178419868273031</v>
@@ -935,53 +898,56 @@
         <v>0.2627636927845457</v>
       </c>
       <c r="Q3">
-        <v>0.30190417342752202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.301904173427522</v>
+      </c>
+      <c r="R3">
+        <v>0.2381195456283279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0.97630647646808</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>0.13589896774747051</v>
+        <v>0.1358989677474705</v>
       </c>
       <c r="E5">
-        <v>0.12861821666604889</v>
+        <v>0.1286182166660489</v>
       </c>
       <c r="F5">
         <v>0.1343163526104442</v>
       </c>
       <c r="G5">
-        <v>0.12543992399302889</v>
+        <v>0.1254399239930289</v>
       </c>
       <c r="H5">
-        <v>0.12468184008186541</v>
+        <v>0.1246818400818654</v>
       </c>
       <c r="I5">
         <v>0.1430135858686552</v>
       </c>
       <c r="J5">
-        <v>0.12799013550831539</v>
+        <v>0.1279901355083154</v>
       </c>
       <c r="K5">
         <v>0.1278859484289622</v>
       </c>
       <c r="L5">
-        <v>0.13731088298279381</v>
+        <v>0.1373108829827938</v>
       </c>
       <c r="M5">
         <v>0.1222427213382182</v>
@@ -993,10 +959,13 @@
         <v>0.1439862129369518</v>
       </c>
       <c r="P5">
-        <v>0.14196394969625881</v>
+        <v>0.1419639496962588</v>
       </c>
       <c r="Q5">
-        <v>0.13445919056338759</v>
+        <v>0.1344591905633876</v>
+      </c>
+      <c r="R5">
+        <v>0.1442184086166561</v>
       </c>
     </row>
   </sheetData>
@@ -1005,14 +974,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1061,96 +1030,102 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>0.69560507777546876</v>
+        <v>0.6956050777754688</v>
       </c>
       <c r="E2">
-        <v>0.68789954555475652</v>
+        <v>0.6878995455547565</v>
       </c>
       <c r="F2">
-        <v>0.69389372047736275</v>
+        <v>0.6938937204773628</v>
       </c>
       <c r="G2">
-        <v>0.68138295898207712</v>
+        <v>0.6813829589820771</v>
       </c>
       <c r="H2">
         <v>0.6797781199959303</v>
       </c>
       <c r="I2">
-        <v>0.71099716437137961</v>
+        <v>0.7109971643713796</v>
       </c>
       <c r="J2">
-        <v>0.68744460072002667</v>
+        <v>0.6874446007200267</v>
       </c>
       <c r="K2">
         <v>0.6846635408335453</v>
       </c>
       <c r="L2">
-        <v>0.69893213265450294</v>
+        <v>0.6989321326545029</v>
       </c>
       <c r="M2">
-        <v>0.67509053998806667</v>
+        <v>0.6750905399880667</v>
       </c>
       <c r="N2">
-        <v>0.67597134832485062</v>
+        <v>0.6759713483248506</v>
       </c>
       <c r="O2">
-        <v>0.73637680945107675</v>
+        <v>0.7363768094510768</v>
       </c>
       <c r="P2">
-        <v>0.70127050428854221</v>
+        <v>0.7012705042885422</v>
       </c>
       <c r="Q2">
-        <v>0.69593192257502168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.6959319225750217</v>
+      </c>
+      <c r="R2">
+        <v>0.7189977566645335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.30510637471325852</v>
+        <v>0.3051063747132585</v>
       </c>
       <c r="E3">
-        <v>0.32630091817568491</v>
+        <v>0.3263009181756849</v>
       </c>
       <c r="F3">
-        <v>0.31362666018762769</v>
+        <v>0.3136266601876277</v>
       </c>
       <c r="G3">
-        <v>0.34050071205221583</v>
+        <v>0.3405007120522158</v>
       </c>
       <c r="H3">
-        <v>0.34506135699097668</v>
+        <v>0.3450613569909767</v>
       </c>
       <c r="I3">
-        <v>0.25109706930537939</v>
+        <v>0.2510970693053794</v>
       </c>
       <c r="J3">
-        <v>0.32684612615102898</v>
+        <v>0.326846126151029</v>
       </c>
       <c r="K3">
-        <v>0.35379541996904812</v>
+        <v>0.3537954199690481</v>
       </c>
       <c r="L3">
-        <v>0.29236842351312559</v>
+        <v>0.2923684235131256</v>
       </c>
       <c r="M3">
-        <v>0.35476826865113431</v>
+        <v>0.3547682686511343</v>
       </c>
       <c r="N3">
-        <v>0.35335109744413518</v>
+        <v>0.3533510974441352</v>
       </c>
       <c r="O3">
         <v>0.2178419868273031</v>
@@ -1159,15 +1134,18 @@
         <v>0.2627636927845457</v>
       </c>
       <c r="Q3">
-        <v>0.30190417342752202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.301904173427522</v>
+      </c>
+      <c r="R3">
+        <v>0.2381195456283279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0.97630647646808</v>
@@ -1179,14 +1157,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:Q4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1235,96 +1213,102 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D2">
-        <v>0.69560507777546876</v>
+        <v>0.6956050777754688</v>
       </c>
       <c r="E2">
-        <v>0.68789954555475652</v>
+        <v>0.6878995455547565</v>
       </c>
       <c r="F2">
-        <v>0.69389372047736275</v>
+        <v>0.6938937204773628</v>
       </c>
       <c r="G2">
-        <v>0.68138295898207712</v>
+        <v>0.6813829589820771</v>
       </c>
       <c r="H2">
         <v>0.6797781199959303</v>
       </c>
       <c r="I2">
-        <v>0.71099716437137961</v>
+        <v>0.7109971643713796</v>
       </c>
       <c r="J2">
-        <v>0.68744460072002667</v>
+        <v>0.6874446007200267</v>
       </c>
       <c r="K2">
         <v>0.6846635408335453</v>
       </c>
       <c r="L2">
-        <v>0.69893213265450294</v>
+        <v>0.6989321326545029</v>
       </c>
       <c r="M2">
-        <v>0.67509053998806667</v>
+        <v>0.6750905399880667</v>
       </c>
       <c r="N2">
-        <v>0.67597134832485062</v>
+        <v>0.6759713483248506</v>
       </c>
       <c r="O2">
-        <v>0.73637680945107675</v>
+        <v>0.7363768094510768</v>
       </c>
       <c r="P2">
-        <v>0.70127050428854221</v>
+        <v>0.7012705042885422</v>
       </c>
       <c r="Q2">
-        <v>0.69593192257502168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.6959319225750217</v>
+      </c>
+      <c r="R2">
+        <v>0.7189977566645335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>0.30510637471325852</v>
+        <v>0.3051063747132585</v>
       </c>
       <c r="E3">
-        <v>0.32630091817568491</v>
+        <v>0.3263009181756849</v>
       </c>
       <c r="F3">
-        <v>0.31362666018762769</v>
+        <v>0.3136266601876277</v>
       </c>
       <c r="G3">
-        <v>0.34050071205221583</v>
+        <v>0.3405007120522158</v>
       </c>
       <c r="H3">
-        <v>0.34506135699097668</v>
+        <v>0.3450613569909767</v>
       </c>
       <c r="I3">
-        <v>0.25109706930537939</v>
+        <v>0.2510970693053794</v>
       </c>
       <c r="J3">
-        <v>0.32684612615102898</v>
+        <v>0.326846126151029</v>
       </c>
       <c r="K3">
-        <v>0.35379541996904812</v>
+        <v>0.3537954199690481</v>
       </c>
       <c r="L3">
-        <v>0.29236842351312559</v>
+        <v>0.2923684235131256</v>
       </c>
       <c r="M3">
-        <v>0.35476826865113431</v>
+        <v>0.3547682686511343</v>
       </c>
       <c r="N3">
-        <v>0.35335109744413518</v>
+        <v>0.3533510974441352</v>
       </c>
       <c r="O3">
         <v>0.2178419868273031</v>
@@ -1333,15 +1317,18 @@
         <v>0.2627636927845457</v>
       </c>
       <c r="Q3">
-        <v>0.30190417342752202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.301904173427522</v>
+      </c>
+      <c r="R3">
+        <v>0.2381195456283279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4">
         <v>0.97630647646808</v>
@@ -1353,19 +1340,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="25.453125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1414,416 +1396,208 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2">
-        <v>6.9386884224317893E-2</v>
+        <v>0.06938688422431789</v>
       </c>
       <c r="D2">
-        <v>8.7467819355262849E-2</v>
+        <v>0.08746781935526285</v>
       </c>
       <c r="E2">
-        <v>6.5717922157821046E-2</v>
+        <v>0.06571792215782105</v>
       </c>
       <c r="F2">
-        <v>8.6295712259831958E-2</v>
+        <v>0.08629571225983196</v>
       </c>
       <c r="G2">
-        <v>6.4648675640111994E-2</v>
+        <v>0.06464867564011199</v>
       </c>
       <c r="H2">
-        <v>6.473494678637251E-2</v>
+        <v>0.06473494678637251</v>
       </c>
       <c r="I2">
-        <v>7.6953412800511808E-2</v>
+        <v>0.07695341280051181</v>
       </c>
       <c r="J2">
-        <v>6.51564624889788E-2</v>
+        <v>0.0651564624889788</v>
       </c>
       <c r="K2">
-        <v>8.7526657930304813E-2</v>
+        <v>0.08752665793030481</v>
       </c>
       <c r="L2">
-        <v>8.4340463647043049E-2</v>
+        <v>0.08434046364704305</v>
       </c>
       <c r="M2">
-        <v>6.4113944721071583E-2</v>
+        <v>0.06411394472107158</v>
       </c>
       <c r="N2">
-        <v>6.4051802561343796E-2</v>
+        <v>0.0640518025613438</v>
       </c>
       <c r="O2">
-        <v>7.4949779679613748E-2</v>
+        <v>0.07494977967961375</v>
       </c>
       <c r="P2">
-        <v>8.2454583374420118E-2</v>
+        <v>0.08245458337442012</v>
       </c>
       <c r="Q2">
-        <v>6.9254568137103747E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.06925456813710375</v>
+      </c>
+      <c r="R2">
+        <v>0.080761834372324</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>0.9435359619548036</v>
       </c>
       <c r="D3">
-        <v>0.95112497955744513</v>
+        <v>0.9511249795574451</v>
       </c>
       <c r="E3">
-        <v>0.93308659856408227</v>
+        <v>0.9330865985640823</v>
       </c>
       <c r="F3">
-        <v>0.95244995340253635</v>
+        <v>0.9524499534025364</v>
       </c>
       <c r="G3">
-        <v>0.92531853976369005</v>
+        <v>0.9253185397636901</v>
       </c>
       <c r="H3">
-        <v>0.92825441476597048</v>
+        <v>0.9282544147659705</v>
       </c>
       <c r="I3">
-        <v>0.95896413424359106</v>
+        <v>0.9589641342435911</v>
       </c>
       <c r="J3">
-        <v>0.93075137553285237</v>
+        <v>0.9307513755328524</v>
       </c>
       <c r="K3">
-        <v>0.94720918359537409</v>
+        <v>0.9472091835953741</v>
       </c>
       <c r="L3">
-        <v>0.95428573002281525</v>
+        <v>0.9542857300228152</v>
       </c>
       <c r="M3">
-        <v>0.92606360316060454</v>
+        <v>0.9260636031606045</v>
       </c>
       <c r="N3">
-        <v>0.92593301148095797</v>
+        <v>0.925933011480958</v>
       </c>
       <c r="O3">
-        <v>0.94928268097514701</v>
+        <v>0.949282680975147</v>
       </c>
       <c r="P3">
-        <v>0.95634571982532202</v>
+        <v>0.956345719825322</v>
       </c>
       <c r="Q3">
-        <v>0.94310797391900647</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.9431079739190065</v>
+      </c>
+      <c r="R3">
+        <v>0.959727082443295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4">
-        <v>9.6193502330131228E-2</v>
+        <v>0.09619350233013123</v>
       </c>
       <c r="E4">
         <v>0.1318898592963694</v>
       </c>
       <c r="G4">
-        <v>0.14340984943770341</v>
+        <v>0.1434098494377034</v>
       </c>
       <c r="H4">
         <v>0.1477073376106082</v>
       </c>
       <c r="J4">
-        <v>0.13932582337974991</v>
+        <v>0.1393258233797499</v>
       </c>
       <c r="M4">
-        <v>0.15467278112732041</v>
+        <v>0.1546727811273204</v>
       </c>
       <c r="N4">
-        <v>0.15529648758016271</v>
+        <v>0.1552964875801627</v>
       </c>
       <c r="Q4">
-        <v>9.423017212937114E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.09423017212937114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C5">
-        <v>6.1750621027116682E-2</v>
+        <v>0.06175062102711668</v>
       </c>
       <c r="D5">
-        <v>7.5103351131476273E-2</v>
+        <v>0.07510335113147627</v>
       </c>
       <c r="E5">
-        <v>5.8986215571292078E-2</v>
+        <v>0.05898621557129208</v>
       </c>
       <c r="F5">
-        <v>7.5101156400731756E-2</v>
+        <v>0.07510115640073176</v>
       </c>
       <c r="G5">
-        <v>5.8232871128667978E-2</v>
+        <v>0.05823287112866798</v>
       </c>
       <c r="H5">
-        <v>5.8250501985196372E-2</v>
+        <v>0.05825050198519637</v>
       </c>
       <c r="I5">
-        <v>6.6560792928709561E-2</v>
+        <v>0.06656079292870956</v>
       </c>
       <c r="J5">
-        <v>5.8557547902184141E-2</v>
+        <v>0.05855754790218414</v>
       </c>
       <c r="K5">
-        <v>7.8721029717660207E-2</v>
+        <v>0.07872102971766021</v>
       </c>
       <c r="L5">
-        <v>7.326613985298229E-2</v>
+        <v>0.07326613985298229</v>
       </c>
       <c r="M5">
-        <v>5.7748824405597018E-2</v>
+        <v>0.05774882440559702</v>
       </c>
       <c r="N5">
-        <v>5.7673925424594659E-2</v>
+        <v>0.05767392542459466</v>
       </c>
       <c r="O5">
-        <v>6.2603409084923164E-2</v>
+        <v>0.06260340908492316</v>
       </c>
       <c r="P5">
-        <v>7.1084455875693842E-2</v>
+        <v>0.07108445587569384</v>
       </c>
       <c r="Q5">
-        <v>6.2171006851862907E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>6.9386884224317893E-2</v>
-      </c>
-      <c r="E8">
-        <v>0.9435359619548036</v>
-      </c>
-      <c r="F8">
-        <v>9.6193502330131228E-2</v>
-      </c>
-      <c r="G8">
-        <v>6.1750621027116682E-2</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>8.7467819355262849E-2</v>
-      </c>
-      <c r="L8">
-        <v>0.95112497955744513</v>
-      </c>
-      <c r="N8">
-        <v>7.5103351131476273E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9">
-        <v>6.5717922157821046E-2</v>
-      </c>
-      <c r="E9">
-        <v>0.93308659856408227</v>
-      </c>
-      <c r="F9">
-        <v>0.1318898592963694</v>
-      </c>
-      <c r="G9">
-        <v>5.8986215571292078E-2</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9">
-        <v>8.6295712259831958E-2</v>
-      </c>
-      <c r="L9">
-        <v>0.95244995340253635</v>
-      </c>
-      <c r="N9">
-        <v>7.5101156400731756E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>6.4648675640111994E-2</v>
-      </c>
-      <c r="E10">
-        <v>0.92531853976369005</v>
-      </c>
-      <c r="F10">
-        <v>0.14340984943770341</v>
-      </c>
-      <c r="G10">
-        <v>5.8232871128667978E-2</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K10">
-        <v>7.6953412800511808E-2</v>
-      </c>
-      <c r="L10">
-        <v>0.95896413424359106</v>
-      </c>
-      <c r="N10">
-        <v>6.6560792928709561E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11">
-        <v>6.473494678637251E-2</v>
-      </c>
-      <c r="E11">
-        <v>0.92825441476597048</v>
-      </c>
-      <c r="F11">
-        <v>0.1477073376106082</v>
-      </c>
-      <c r="G11">
-        <v>5.8250501985196372E-2</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K11">
-        <v>8.7526657930304813E-2</v>
-      </c>
-      <c r="L11">
-        <v>0.94720918359537409</v>
-      </c>
-      <c r="N11">
-        <v>7.8721029717660207E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>6.51564624889788E-2</v>
-      </c>
-      <c r="E12">
-        <v>0.93075137553285237</v>
-      </c>
-      <c r="F12">
-        <v>0.13932582337974991</v>
-      </c>
-      <c r="G12">
-        <v>5.8557547902184141E-2</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K12">
-        <v>8.4340463647043049E-2</v>
-      </c>
-      <c r="L12">
-        <v>0.95428573002281525</v>
-      </c>
-      <c r="N12">
-        <v>7.326613985298229E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13">
-        <v>6.4113944721071583E-2</v>
-      </c>
-      <c r="E13">
-        <v>0.92606360316060454</v>
-      </c>
-      <c r="F13">
-        <v>0.15467278112732041</v>
-      </c>
-      <c r="G13">
-        <v>5.7748824405597018E-2</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K13">
-        <v>7.4949779679613748E-2</v>
-      </c>
-      <c r="L13">
-        <v>0.94928268097514701</v>
-      </c>
-      <c r="N13">
-        <v>6.2603409084923164E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>6.4051802561343796E-2</v>
-      </c>
-      <c r="E14">
-        <v>0.92593301148095797</v>
-      </c>
-      <c r="F14">
-        <v>0.15529648758016271</v>
-      </c>
-      <c r="G14">
-        <v>5.7673925424594659E-2</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K14">
-        <v>8.2454583374420118E-2</v>
-      </c>
-      <c r="L14">
-        <v>0.95634571982532202</v>
-      </c>
-      <c r="N14">
-        <v>7.1084455875693842E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="C15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>6.9254568137103747E-2</v>
-      </c>
-      <c r="E15">
-        <v>0.94310797391900647</v>
-      </c>
-      <c r="F15">
-        <v>9.423017212937114E-2</v>
-      </c>
-      <c r="G15">
-        <v>6.2171006851862907E-2</v>
+        <v>0.06217100685186291</v>
+      </c>
+      <c r="R5">
+        <v>0.06929244028415084</v>
       </c>
     </row>
   </sheetData>
@@ -1832,14 +1606,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1888,84 +1662,90 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0.9435359619548036</v>
       </c>
       <c r="D2">
-        <v>0.95112497955744513</v>
+        <v>0.9511249795574451</v>
       </c>
       <c r="E2">
-        <v>0.93308659856408227</v>
+        <v>0.9330865985640823</v>
       </c>
       <c r="F2">
-        <v>0.95244995340253635</v>
+        <v>0.9524499534025364</v>
       </c>
       <c r="G2">
-        <v>0.92531853976369005</v>
+        <v>0.9253185397636901</v>
       </c>
       <c r="H2">
-        <v>0.92825441476597048</v>
+        <v>0.9282544147659705</v>
       </c>
       <c r="I2">
-        <v>0.95896413424359106</v>
+        <v>0.9589641342435911</v>
       </c>
       <c r="J2">
-        <v>0.93075137553285237</v>
+        <v>0.9307513755328524</v>
       </c>
       <c r="K2">
-        <v>0.94720918359537409</v>
+        <v>0.9472091835953741</v>
       </c>
       <c r="L2">
-        <v>0.95428573002281525</v>
+        <v>0.9542857300228152</v>
       </c>
       <c r="M2">
-        <v>0.92606360316060454</v>
+        <v>0.9260636031606045</v>
       </c>
       <c r="N2">
-        <v>0.92593301148095797</v>
+        <v>0.925933011480958</v>
       </c>
       <c r="O2">
-        <v>0.94928268097514701</v>
+        <v>0.949282680975147</v>
       </c>
       <c r="P2">
-        <v>0.95634571982532202</v>
+        <v>0.956345719825322</v>
       </c>
       <c r="Q2">
-        <v>0.94310797391900647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.9431079739190065</v>
+      </c>
+      <c r="R2">
+        <v>0.959727082443295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E3">
         <v>0.1318898592963694</v>
       </c>
       <c r="G3">
-        <v>0.14340984943770341</v>
+        <v>0.1434098494377034</v>
       </c>
       <c r="H3">
         <v>0.1477073376106082</v>
       </c>
       <c r="J3">
-        <v>0.13932582337974991</v>
+        <v>0.1393258233797499</v>
       </c>
       <c r="M3">
-        <v>0.15467278112732041</v>
+        <v>0.1546727811273204</v>
       </c>
       <c r="N3">
-        <v>0.15529648758016271</v>
+        <v>0.1552964875801627</v>
       </c>
     </row>
   </sheetData>
@@ -1974,14 +1754,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2030,72 +1810,78 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0.9435359619548036</v>
       </c>
       <c r="D2">
-        <v>0.95112497955744513</v>
+        <v>0.9511249795574451</v>
       </c>
       <c r="E2">
-        <v>0.93308659856408227</v>
+        <v>0.9330865985640823</v>
       </c>
       <c r="F2">
-        <v>0.95244995340253635</v>
+        <v>0.9524499534025364</v>
       </c>
       <c r="G2">
-        <v>0.92531853976369005</v>
+        <v>0.9253185397636901</v>
       </c>
       <c r="H2">
-        <v>0.92825441476597048</v>
+        <v>0.9282544147659705</v>
       </c>
       <c r="I2">
-        <v>0.95896413424359106</v>
+        <v>0.9589641342435911</v>
       </c>
       <c r="J2">
-        <v>0.93075137553285237</v>
+        <v>0.9307513755328524</v>
       </c>
       <c r="K2">
-        <v>0.94720918359537409</v>
+        <v>0.9472091835953741</v>
       </c>
       <c r="L2">
-        <v>0.95428573002281525</v>
+        <v>0.9542857300228152</v>
       </c>
       <c r="M2">
-        <v>0.92606360316060454</v>
+        <v>0.9260636031606045</v>
       </c>
       <c r="N2">
-        <v>0.92593301148095797</v>
+        <v>0.925933011480958</v>
       </c>
       <c r="O2">
-        <v>0.94928268097514701</v>
+        <v>0.949282680975147</v>
       </c>
       <c r="P2">
-        <v>0.95634571982532202</v>
+        <v>0.956345719825322</v>
       </c>
       <c r="Q2">
-        <v>0.94310797391900647</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+        <v>0.9431079739190065</v>
+      </c>
+      <c r="R2">
+        <v>0.959727082443295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M3">
-        <v>0.15467278112732041</v>
+        <v>0.1546727811273204</v>
       </c>
       <c r="N3">
-        <v>0.15529648758016271</v>
+        <v>0.1552964875801627</v>
       </c>
     </row>
   </sheetData>
@@ -2104,14 +1890,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2160,58 +1946,64 @@
       <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>0.9435359619548036</v>
       </c>
       <c r="D2">
-        <v>0.95112497955744513</v>
+        <v>0.9511249795574451</v>
       </c>
       <c r="E2">
-        <v>0.93308659856408227</v>
+        <v>0.9330865985640823</v>
       </c>
       <c r="F2">
-        <v>0.95244995340253635</v>
+        <v>0.9524499534025364</v>
       </c>
       <c r="G2">
-        <v>0.92531853976369005</v>
+        <v>0.9253185397636901</v>
       </c>
       <c r="H2">
-        <v>0.92825441476597048</v>
+        <v>0.9282544147659705</v>
       </c>
       <c r="I2">
-        <v>0.95896413424359106</v>
+        <v>0.9589641342435911</v>
       </c>
       <c r="J2">
-        <v>0.93075137553285237</v>
+        <v>0.9307513755328524</v>
       </c>
       <c r="K2">
-        <v>0.94720918359537409</v>
+        <v>0.9472091835953741</v>
       </c>
       <c r="L2">
-        <v>0.95428573002281525</v>
+        <v>0.9542857300228152</v>
       </c>
       <c r="M2">
-        <v>0.92606360316060454</v>
+        <v>0.9260636031606045</v>
       </c>
       <c r="N2">
-        <v>0.92593301148095797</v>
+        <v>0.925933011480958</v>
       </c>
       <c r="O2">
-        <v>0.94928268097514701</v>
+        <v>0.949282680975147</v>
       </c>
       <c r="P2">
-        <v>0.95634571982532202</v>
+        <v>0.956345719825322</v>
       </c>
       <c r="Q2">
-        <v>0.94310797391900647</v>
+        <v>0.9431079739190065</v>
+      </c>
+      <c r="R2">
+        <v>0.959727082443295</v>
       </c>
     </row>
   </sheetData>
